--- a/Tcc 1 2ª Tentativa/qualidadesdgrafindire.xlsx
+++ b/Tcc 1 2ª Tentativa/qualidadesdgrafindire.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Gráfico Trabalho em Equipe" sheetId="2" r:id="rId2"/>
     <sheet name="Gráfico Organização" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -200,11 +197,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,126 +231,29 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Habilidade de Comunicação</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>22,58%</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t> </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>(</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900" baseline="0"/>
-                      <a:t>7 Disciplinas</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>77,41%</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>(</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900"/>
-                      <a:t>24 Disciplinas</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Plan3!$B$11:$C$11</c:f>
+              <c:f>'Gráfico Comunicação'!$B$10:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -367,7 +267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Plan3!$B$12:$C$12</c:f>
+              <c:f>'Gráfico Comunicação'!$B$11:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -382,52 +282,22 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="169209344"/>
-        <c:axId val="216897728"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="169209344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216897728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="216897728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169209344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -623,11 +493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155256832"/>
-        <c:axId val="204904640"/>
+        <c:axId val="43688448"/>
+        <c:axId val="45419904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155256832"/>
+        <c:axId val="43688448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204904640"/>
+        <c:crossAx val="45419904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -644,7 +514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204904640"/>
+        <c:axId val="45419904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155256832"/>
+        <c:crossAx val="43688448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -844,11 +714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41170944"/>
-        <c:axId val="155102016"/>
+        <c:axId val="43689472"/>
+        <c:axId val="45423936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41170944"/>
+        <c:axId val="43689472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155102016"/>
+        <c:crossAx val="45423936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155102016"/>
+        <c:axId val="45423936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41170944"/>
+        <c:crossAx val="43689472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,23 +767,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -998,40 +866,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Plan1"/>
-      <sheetName val="Plan2"/>
-      <sheetName val="Plan3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Possuem</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Não Possuem</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.2258</v>
-          </cell>
-          <cell r="C12">
-            <v>0.77410000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1324,7 +1158,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,14 +1167,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1403,10 +1237,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.2258</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.77410000000000001</v>
       </c>
     </row>
@@ -1434,14 +1268,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1512,7 +1346,7 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
@@ -1558,10 +1392,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.5161</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.48380000000000001</v>
       </c>
     </row>
@@ -1589,15 +1423,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1684,10 +1518,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.3548</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.64510000000000001</v>
       </c>
     </row>
